--- a/hardware/Star.box-main.xlsx
+++ b/hardware/Star.box-main.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
-  <bookViews>
-    <workbookView windowWidth="20190" windowHeight="9525"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="BOM_Board1_PCB1_2024-08-11" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Star.box-main" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="176">
   <si>
     <t>No.</t>
   </si>
@@ -52,7 +49,7 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>C1,C5,C6,C7,C8,C9,C11,C18,C19,C24,C25,C30,C31,C32,C33,C34,C35</t>
+    <t>C1,C5,C6,C7,C8,C9,C11,C18,C19,C24,C30,C31,C32,C33,C34,C35</t>
   </si>
   <si>
     <t>C0603</t>
@@ -169,6 +166,21 @@
     <t>8</t>
   </si>
   <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C38,C39</t>
+  </si>
+  <si>
+    <t>CL10A105KB8NNNC</t>
+  </si>
+  <si>
+    <t>C15849</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>1N5819HW-7-F</t>
   </si>
   <si>
@@ -187,7 +199,7 @@
     <t>C82544</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>BAS316,115</t>
@@ -205,7 +217,7 @@
     <t>C109218</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>4.7uH</t>
@@ -226,7 +238,7 @@
     <t>C114862</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>XL-1608UGC-04</t>
@@ -244,7 +256,7 @@
     <t>C965804</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>CJ3401</t>
@@ -262,7 +274,7 @@
     <t>C13799</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>5.1kΩ</t>
@@ -283,13 +295,13 @@
     <t>C23186</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>10kΩ</t>
   </si>
   <si>
-    <t>R3,R4,R5,R9,R11,R12,R13,R14</t>
+    <t>R3,R4,R5,R9,R13,R14,R18,R19</t>
   </si>
   <si>
     <t>0603WAF1002T5E</t>
@@ -298,13 +310,13 @@
     <t>C25804</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>4.7kΩ</t>
   </si>
   <si>
-    <t>R6,R7,R8</t>
+    <t>R6,R7,R8,R16,R17</t>
   </si>
   <si>
     <t>0603WAF4701T5E</t>
@@ -313,7 +325,7 @@
     <t>C23162</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>73.2kΩ</t>
@@ -331,7 +343,7 @@
     <t>C325652</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>TS-1088-AR02016</t>
@@ -349,9 +361,147 @@
     <t>C720477</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>STM32F103C8T6</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>LQFP-48_L7.0-W7.0-P0.50-LS9.0-BL</t>
+  </si>
+  <si>
+    <t>ST(意法半导体)</t>
+  </si>
+  <si>
+    <t>C8734</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SOT-223-3_L6.5-W3.4-P2.30-LS7.0-BR</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
+    <t>C6186</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>MPU-6050</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>QFN-24_L4.0-W4.0-P0.50-BL-EP2.7</t>
+  </si>
+  <si>
+    <t>TDK InvenSense(应美盛)</t>
+  </si>
+  <si>
+    <t>C24112</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>TP4056</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>ESOP-8_L4.9-W3.9-P1.27-LS6.0-BL-EP</t>
+  </si>
+  <si>
+    <t>TPOWER(天源)</t>
+  </si>
+  <si>
+    <t>C382139</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>SX1308</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BL</t>
+  </si>
+  <si>
+    <t>SX(硕芯科技)</t>
+  </si>
+  <si>
+    <t>C78162</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
+    <t>DRV2605LDGSR</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>VSSOP-10_L3.0-W3.0-P0.50-LS4.9-BL</t>
+  </si>
+  <si>
+    <t>TI(德州仪器)</t>
+  </si>
+  <si>
+    <t>C527464</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>嘉立创二维码8x8</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>JLC-QRCODE-8x8</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>TYPE-C 16PIN 2MD(073)</t>
+  </si>
+  <si>
+    <t>USB1</t>
+  </si>
+  <si>
+    <t>USB-C-SMD_TYPE-C-6PIN-2MD-073</t>
+  </si>
+  <si>
+    <t>SHOU HAN(首韩)</t>
+  </si>
+  <si>
+    <t>C2765186</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>8MHz</t>
   </si>
   <si>
@@ -370,7 +520,7 @@
     <t>C115962</t>
   </si>
   <si>
-    <t>25</t>
+    <t>28</t>
   </si>
   <si>
     <t>32.768kHz</t>
@@ -389,409 +539,30 @@
   </si>
   <si>
     <t>C97606</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>TP4056</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>ESOP-8_L4.9-W3.9-P1.27-LS6.0-BL-EP</t>
-  </si>
-  <si>
-    <t>TPOWER(天源)</t>
-  </si>
-  <si>
-    <t>C382139</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>SX1308</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BL</t>
-  </si>
-  <si>
-    <t>SX(硕芯科技)</t>
-  </si>
-  <si>
-    <t>C78162</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -799,310 +570,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1424,24 +909,22 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1473,12 +956,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1505,7 +988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1537,7 +1020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1569,7 +1052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1601,7 +1084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1633,7 +1116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1665,7 +1148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1697,12 +1180,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
@@ -1711,208 +1194,208 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
         <v>54</v>
       </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="I9" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>61</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>62</v>
       </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>65</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
         <v>66</v>
       </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>68</v>
       </c>
-      <c r="I11" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>69</v>
       </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
         <v>72</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>73</v>
       </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>74</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>75</v>
       </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>76</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>77</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>78</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
         <v>79</v>
       </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>80</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>81</v>
       </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="B14">
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="C15" t="s">
         <v>88</v>
       </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
         <v>89</v>
       </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>90</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
         <v>91</v>
       </c>
-      <c r="E15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>92</v>
-      </c>
-      <c r="H15" t="s">
-        <v>87</v>
       </c>
       <c r="I15" t="s">
         <v>93</v>
@@ -1921,12 +1404,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>94</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>95</v>
@@ -1935,7 +1418,7 @@
         <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
         <v>95</v>
@@ -1944,7 +1427,7 @@
         <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
         <v>98</v>
@@ -1953,12 +1436,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>99</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>100</v>
@@ -1967,7 +1450,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
@@ -1976,185 +1459,407 @@
         <v>102</v>
       </c>
       <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" t="s">
         <v>103</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>104</v>
       </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>105</v>
       </c>
-      <c r="B18">
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
         <v>111</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>112</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>113</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" t="s">
         <v>114</v>
       </c>
-      <c r="F19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>115</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>116</v>
       </c>
-      <c r="I19" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>117</v>
       </c>
-      <c r="J19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
+      <c r="D20" t="s">
         <v>118</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>119</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" t="s">
         <v>120</v>
       </c>
-      <c r="E20" t="s">
+      <c r="I20" t="s">
         <v>121</v>
       </c>
-      <c r="F20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>122</v>
       </c>
-      <c r="H20" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>123</v>
       </c>
-      <c r="I20" t="s">
+      <c r="D21" t="s">
         <v>124</v>
       </c>
-      <c r="J20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
+      <c r="E21" t="s">
         <v>125</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" t="s">
         <v>126</v>
       </c>
-      <c r="D21" t="s">
+      <c r="I21" t="s">
         <v>127</v>
       </c>
-      <c r="E21" t="s">
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>128</v>
       </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>129</v>
       </c>
-      <c r="I21" t="s">
+      <c r="D22" t="s">
         <v>130</v>
       </c>
-      <c r="J21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
+      <c r="E22" t="s">
         <v>131</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" t="s">
         <v>132</v>
       </c>
-      <c r="D22" t="s">
+      <c r="I22" t="s">
         <v>133</v>
       </c>
-      <c r="E22" t="s">
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>134</v>
       </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>135</v>
       </c>
-      <c r="I22" t="s">
+      <c r="D23" t="s">
         <v>136</v>
       </c>
-      <c r="J22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1"/>
-    <row r="27" spans="1:1">
+      <c r="E23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>156</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" t="s">
+        <v>161</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>